--- a/reports/compras.xlsx
+++ b/reports/compras.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Item</t>
   </si>
@@ -52,6 +52,27 @@
   </si>
   <si>
     <t>oled 0,91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCB </t>
+  </si>
+  <si>
+    <t>header 8 pinos</t>
+  </si>
+  <si>
+    <t>header 6 pinos</t>
+  </si>
+  <si>
+    <t>conector jst</t>
+  </si>
+  <si>
+    <t>bateria</t>
+  </si>
+  <si>
+    <t>carregador da bateria</t>
+  </si>
+  <si>
+    <t>pente 40 pinos</t>
   </si>
 </sst>
 </file>
@@ -59,7 +80,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -92,7 +113,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -373,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,8 +435,8 @@
         <v>3.99</v>
       </c>
       <c r="E2" s="1">
-        <f>SUM(C2:C10)</f>
-        <v>18.900000000000002</v>
+        <f>SUM(C2:C20)</f>
+        <v>41.96</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -448,7 +469,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>1.04</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -474,13 +495,81 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="1"/>
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="1"/>
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="1"/>
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0.65</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/reports/compras.xlsx
+++ b/reports/compras.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Item</t>
   </si>
@@ -27,9 +27,6 @@
     <t>Quantidade</t>
   </si>
   <si>
-    <t>Valor unitario</t>
-  </si>
-  <si>
     <t>Link</t>
   </si>
   <si>
@@ -73,13 +70,29 @@
   </si>
   <si>
     <t>pente 40 pinos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bateria 3.7V </t>
+  </si>
+  <si>
+    <t>pedro vila cha pagou 3€</t>
+  </si>
+  <si>
+    <t>Tiago ferreira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carregador lipo basico </t>
+  </si>
+  <si>
+    <t>Valor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
@@ -111,9 +124,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,7 +421,7 @@
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -415,18 +429,18 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -436,12 +450,12 @@
       </c>
       <c r="E2" s="1">
         <f>SUM(C2:C20)</f>
-        <v>41.96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>59.410000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -450,9 +464,9 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -461,9 +475,9 @@
         <v>2.98</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -471,21 +485,24 @@
       <c r="C5" s="1">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -494,9 +511,9 @@
         <v>6.39</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -504,10 +521,13 @@
       <c r="C8" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -516,9 +536,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -527,9 +547,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -538,9 +558,9 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -549,9 +569,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -560,15 +580,37 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14">
         <v>0.65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>8.5</v>
       </c>
     </row>
   </sheetData>

--- a/reports/compras.xlsx
+++ b/reports/compras.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Item</t>
   </si>
@@ -85,14 +85,16 @@
   </si>
   <si>
     <t>Valor</t>
+  </si>
+  <si>
+    <t>interruptor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
@@ -124,10 +126,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,7 +429,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" t="s">
@@ -450,7 +451,7 @@
       </c>
       <c r="E2" s="1">
         <f>SUM(C2:C20)</f>
-        <v>59.410000000000004</v>
+        <v>60.66</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -533,7 +534,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="1">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -576,7 +577,7 @@
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>8.5</v>
       </c>
     </row>
@@ -587,7 +588,7 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>0.65</v>
       </c>
     </row>
@@ -598,7 +599,7 @@
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>7.95</v>
       </c>
     </row>
@@ -609,8 +610,16 @@
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>8.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.65</v>
       </c>
     </row>
   </sheetData>

--- a/reports/compras.xlsx
+++ b/reports/compras.xlsx
@@ -19,17 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Item</t>
   </si>
   <si>
-    <t>Quantidade</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
     <t>Total:</t>
   </si>
   <si>
@@ -73,12 +67,6 @@
   </si>
   <si>
     <t xml:space="preserve">bateria 3.7V </t>
-  </si>
-  <si>
-    <t>pedro vila cha pagou 3€</t>
-  </si>
-  <si>
-    <t>Tiago ferreira</t>
   </si>
   <si>
     <t xml:space="preserve">carregador lipo basico </t>
@@ -133,7 +121,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -144,6 +136,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:C17" totalsRowShown="0">
+  <autoFilter ref="A1:C17"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Item"/>
+    <tableColumn id="2" name="Valor" dataDxfId="0"/>
+    <tableColumn id="3" name="Total:"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -409,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection sqref="A1:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,207 +426,154 @@
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B2" s="1">
+        <v>3.99</v>
+      </c>
+      <c r="C2" s="1">
+        <f>SUM(B2:B20)</f>
+        <v>60.66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B3" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>3.99</v>
-      </c>
-      <c r="E2" s="1">
-        <f>SUM(C2:C20)</f>
-        <v>60.66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B4" s="1">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B5" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2.98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2.6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B7" s="1">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>6.39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B9" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="B10" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1">
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1">
-        <v>7.95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="1">
+      <c r="B17" s="1">
         <v>0.65</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>